--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -307,7 +307,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJM1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="AJM1" sqref="AJM1:AJM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
